--- a/biology/Botanique/Lophiocarpaceae/Lophiocarpaceae.xlsx
+++ b/biology/Botanique/Lophiocarpaceae/Lophiocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lophiocarpaceae sont une famille végétale introduite par l'Angiosperm Phylogeny Website.
 Ce sont des plantes herbacées ou des buissons à feuilles simples, exstipulées, originaires des régions tropicales et subtropicales d'Afrique et d'Asie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Lophiocarpus dérivé du grec λοφίος / lophios, plume, panache, et καρπός / karpos, fruit[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Lophiocarpus dérivé du grec λοφίος / lophios, plume, panache, et καρπός / karpos, fruit.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Lophiocarpaceae comprend de un à deux genres qui étaient classés dans la famille des Phytolaccaceae par la classification phylogénétique APG II (2003)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Lophiocarpaceae comprend de un à deux genres qui étaient classés dans la famille des Phytolaccaceae par la classification phylogénétique APG II (2003).
 La taxinomie et la phylogénie de cette famille sont incertaines.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017)[3] et NCBI  (2 fév. 2017)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017) et NCBI  (2 fév. 2017) :
 genre Corbichonia (placé par NCBI sous la famille Aizoaceae)
 genre Lophiocarpus</t>
         </is>
@@ -607,15 +625,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 fév. 2017)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 fév. 2017) :
 genre Corbichonia
 Corbichonia decumbens 
 genre Lophiocarpus
 Lophiocarpus burchellii
 Lophiocarpus dinteri
-Selon GRIN            (3 mai 2010)[5] :
+Selon GRIN            (3 mai 2010) :
 genre Corbichonia
 Corbichonia decumbens (placé par NCBI sous la famille Aizoaceae)
 genre Lophiocarpus
